--- a/report/reliability/comb/Instituto de Química e Biotecnologia - IQB-Graduação (bacharelado).xlsx
+++ b/report/reliability/comb/Instituto de Química e Biotecnologia - IQB-Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1011,16 +1014,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2225,16 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3389,7 +3392,9 @@
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3415,16 +3420,14 @@
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3432,7 +3435,9 @@
     <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3446,23 +3451,23 @@
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3476,22 +3481,22 @@
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3505,22 +3510,22 @@
     <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3546,16 +3551,14 @@
     <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3563,7 +3566,9 @@
     <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3577,23 +3582,23 @@
     <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3607,22 +3612,22 @@
     <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3636,21 +3641,21 @@
     <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3676,16 +3681,14 @@
     <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3693,7 +3696,9 @@
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3707,23 +3712,23 @@
     <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3737,22 +3742,22 @@
     <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3766,16 +3771,14 @@
     <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4116,31 +4119,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7984141728603252</v>
+        <v>0.7601485976134488</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8157817592603405</v>
+        <v>0.7976940439965594</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9308132369789575</v>
+        <v>0.9170581064647749</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2695551098836576</v>
+        <v>0.2327218493671763</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.428344098743284</v>
+        <v>3.9430082027985063</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.04583679335749427</v>
+        <v>0.051020170313891416</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.6148148148148147</v>
+        <v>1.9794871794871796</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7368992350408677</v>
+        <v>0.6028888674970783</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.23490339802139631</v>
+        <v>0.16638718023942417</v>
       </c>
     </row>
     <row r="7">
@@ -4190,28 +4193,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7731278129845107</v>
+        <v>0.7584844148191231</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7874916661012387</v>
+        <v>0.7844045074788043</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.905966989673366</v>
+        <v>0.9031041099744993</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2519906129467735</v>
+        <v>0.23265394560114436</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.705697803251321</v>
+        <v>3.638315895689182</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.051734078456774024</v>
+        <v>0.052406555105466504</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.047306855313528295</v>
+        <v>0.057542241121269544</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.22896614531400097</v>
+        <v>0.1664055198165917</v>
       </c>
     </row>
     <row r="12">
@@ -4219,28 +4222,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7660466144517434</v>
+        <v>0.7361248970728111</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7847557035649584</v>
+        <v>0.772150696069774</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9111006030140438</v>
+        <v>0.9005582110281938</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.24893573410824976</v>
+        <v>0.22021543263169524</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.645883847155915</v>
+        <v>3.3888657228736965</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.05338028145537955</v>
+        <v>0.05605693024383175</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04849988433542239</v>
+        <v>0.060087457649905286</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.21499640510241666</v>
+        <v>0.1387154185174895</v>
       </c>
     </row>
     <row r="13">
@@ -4248,28 +4251,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7750568199036336</v>
+        <v>0.7292105535324505</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7915703981742837</v>
+        <v>0.7702056633268802</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9014525667728868</v>
+        <v>0.9052219336002082</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.25664540416635306</v>
+        <v>0.2183284949398649</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.797782998387026</v>
+        <v>3.351717342026972</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.05128221538750286</v>
+        <v>0.05738418852058684</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.045628970709277156</v>
+        <v>0.06027219390775993</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.23719615100771055</v>
+        <v>0.1421905450280858</v>
       </c>
     </row>
     <row r="14">
@@ -4277,28 +4280,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7739488399394484</v>
+        <v>0.74838914357323</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7921990448843135</v>
+        <v>0.7814300200010276</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9068125260569038</v>
+        <v>0.9016087280273511</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.25737380983323027</v>
+        <v>0.2295440933014487</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.8122974191494072</v>
+        <v>3.5751937205864293</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.051581876378207485</v>
+        <v>0.05432290573041034</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04691934882584971</v>
+        <v>0.04661058817635336</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.22896614531400097</v>
+        <v>0.17972350430372142</v>
       </c>
     </row>
     <row r="15">
@@ -4306,28 +4309,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7891416671885765</v>
+        <v>0.7350500588871575</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8112281904285357</v>
+        <v>0.7793990232226956</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8998290889131053</v>
+        <v>0.9000638719626235</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2809236094175513</v>
+        <v>0.22745478880618264</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>4.297401144112169</v>
+        <v>3.5330714968206838</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.04724090151363099</v>
+        <v>0.05529869816106201</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.044744985415691566</v>
+        <v>0.047348437843481514</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2432895712716643</v>
+        <v>0.17972350430372142</v>
       </c>
     </row>
     <row r="16">
@@ -4335,28 +4338,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7964512711864408</v>
+        <v>0.7434051929969909</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8143709023226825</v>
+        <v>0.7819511996647613</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9023755964667792</v>
+        <v>0.9021611938539527</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2851148251158563</v>
+        <v>0.23008466432268607</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.387086467113674</v>
+        <v>3.5861293364721685</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.045483990944237364</v>
+        <v>0.05319182115229359</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04338267360292332</v>
+        <v>0.04674242374366063</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.24967876695593924</v>
+        <v>0.17972350430372142</v>
       </c>
     </row>
     <row r="17">
@@ -4364,28 +4367,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7892749003984065</v>
+        <v>0.7631316732416106</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8122586593505613</v>
+        <v>0.8048816182616216</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9231489967572771</v>
+        <v>0.9221665623862088</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.28228778580000874</v>
+        <v>0.25581828042016713</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.326477357308621</v>
+        <v>4.125093756368047</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.0484274683676943</v>
+        <v>0.05171803921772052</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.05311283348906512</v>
+        <v>0.061366172728008914</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.23719615100771055</v>
+        <v>0.18950179708317227</v>
       </c>
     </row>
     <row r="18">
@@ -4393,28 +4396,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7919993323926139</v>
+        <v>0.7421123576936253</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.810385466354022</v>
+        <v>0.7861156772369974</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9247157933569123</v>
+        <v>0.9043389750894447</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.279815193026407</v>
+        <v>0.23447049168813125</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.273857339791586</v>
+        <v>3.6754244868524713</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04759112329393061</v>
+        <v>0.05503594931349093</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05245807063803811</v>
+        <v>0.06321531562819452</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2382844278256018</v>
+        <v>0.1476946261584523</v>
       </c>
     </row>
     <row r="19">
@@ -4422,28 +4425,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7896876968216663</v>
+        <v>0.7482423184810747</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8074128491384202</v>
+        <v>0.7878815014880352</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9343856351947148</v>
+        <v>0.9108695984238151</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2759563592457274</v>
+        <v>0.23636656708786788</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.1924544058432005</v>
+        <v>3.7143460236382633</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.04831381179143402</v>
+        <v>0.053213508050500645</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.0567042263058082</v>
+        <v>0.06253230301081868</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.23719615100771055</v>
+        <v>0.154161021407334</v>
       </c>
     </row>
     <row r="20">
@@ -4451,28 +4454,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7902680670018745</v>
+        <v>0.748662249449055</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8069670489131932</v>
+        <v>0.7900406823109081</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.929433221067542</v>
+        <v>0.917821589754807</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.27538440503714556</v>
+        <v>0.23871525942094654</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.180462684582281</v>
+        <v>3.762827442032373</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.04769838222116549</v>
+        <v>0.05341350006517651</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05156163232385972</v>
+        <v>0.06563084891164175</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.23719615100771055</v>
+        <v>0.16638718023942417</v>
       </c>
     </row>
     <row r="21">
@@ -4480,28 +4483,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7781115432181546</v>
+        <v>0.744156223708099</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7925502833564808</v>
+        <v>0.7873909357313807</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9114283019189345</v>
+        <v>0.913466352865507</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2577820828748475</v>
+        <v>0.23583760291204833</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.820445244176427</v>
+        <v>3.7034683278440013</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.05025086320398857</v>
+        <v>0.05367700461975566</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05039211705123809</v>
+        <v>0.06000783507147284</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.19898848383122844</v>
+        <v>0.154161021407334</v>
       </c>
     </row>
     <row r="22">
@@ -4509,33 +4512,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7940207045091364</v>
+        <v>0.7321683184311631</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8123818291895175</v>
+        <v>0.7756571561005676</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9231641154226925</v>
+        <v>0.8936817578890183</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.282451497031741</v>
+        <v>0.22367598460914181</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>4.329974147387481</v>
+        <v>3.4574633298679083</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.047447453579847705</v>
+        <v>0.056176220947458076</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04821994449814304</v>
+        <v>0.05892635104345564</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.23719615100771055</v>
+        <v>0.14975083893183996</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7521846596991105</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7932046213035047</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.9050441933121502</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2422184360319669</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.8356980040045134</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.05272341087044416</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.058917975444183555</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.17801060865993357</v>
       </c>
     </row>
     <row r="24">
@@ -4544,458 +4571,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>45.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6765973406601162</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7148756260272771</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.7186005363253058</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.6067675600511708</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0125475422184014</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.71739662376759</v>
+        <v>0.45173919987512856</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.7392334587811384</v>
+        <v>0.5407708732285353</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.7336641305930262</v>
+        <v>0.5245675863775215</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.6377392103801219</v>
+        <v>0.4301931901946662</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.0</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.243163121016122</v>
+        <v>0.2084090771399927</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6416907083071043</v>
+        <v>0.5832721473633667</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6777610195162537</v>
+        <v>0.6576854445283665</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6851235139511461</v>
+        <v>0.6458103733910001</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5568000582881368</v>
+        <v>0.4879531915330968</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.6666666666666665</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1281521496355325</v>
+        <v>1.0125475422184014</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6465461627235947</v>
+        <v>0.6344647416221795</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6719531350309454</v>
+        <v>0.6754215285644324</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6718719289820323</v>
+        <v>0.6516524841703413</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5514317119151931</v>
+        <v>0.5242459749820624</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.088888888888889</v>
+        <v>4.0</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2581050364847455</v>
+        <v>1.243163121016122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5613396778521881</v>
+        <v>0.6084890472957221</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.4841806864388287</v>
+        <v>0.570001622058217</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.49860330142070325</v>
+        <v>0.5943509684526158</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4121291798421578</v>
+        <v>0.5759920204261016</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.7555555555555555</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.6535850248304242</v>
+        <v>0.38664576746028073</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.52988803413306</v>
+        <v>0.6314269211387469</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.45076236237069467</v>
+        <v>0.5896398328297787</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.4638219526958243</v>
+        <v>0.6142145177053233</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.3642126789370525</v>
+        <v>0.476648761310123</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.8</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7529196424044293</v>
+        <v>1.6535850248304242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.48873111851334794</v>
+        <v>0.6047987517263647</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.473303534863572</v>
+        <v>0.5649205782581821</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.4283977497927447</v>
+        <v>0.5880631139018337</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3825744882389706</v>
+        <v>0.43170042290794264</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.1555555555555554</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1272564352032197</v>
+        <v>1.7529196424044293</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5171793476551029</v>
+        <v>0.22824137357524377</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4930185561234339</v>
+        <v>0.3230400012614695</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.44467470989067914</v>
+        <v>0.23659643739608208</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.37361833688115115</v>
+        <v>0.2100971509587023</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.2444444444444445</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5248778722417495</v>
+        <v>0.14907119849998599</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5404258183114196</v>
+        <v>0.5295780986000826</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5237866594830305</v>
+        <v>0.5236964281137452</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4448400934820756</v>
+        <v>0.49035695506107735</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.39764514559904557</v>
+        <v>0.41396060203306967</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.2444444444444445</v>
+        <v>3.1555555555555554</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5544007257337524</v>
+        <v>1.1272564352032197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5051766804184488</v>
+        <v>0.5361398276215004</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5283470907445978</v>
+        <v>0.5058744550968065</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4733352128610686</v>
+        <v>0.46306876518180495</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.37721442368492847</v>
+        <v>0.3751060349393101</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2888888888888888</v>
+        <v>3.2444444444444445</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3588468075778986</v>
+        <v>1.5248778722417495</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6138870468866394</v>
+        <v>0.5390156367775157</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6686978024985332</v>
+        <v>0.48379815402194754</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6539701096203481</v>
+        <v>0.41241200168390957</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5303037226755936</v>
+        <v>0.3749649886100048</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.311111111111111</v>
+        <v>1.2444444444444445</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.0622065845600979</v>
+        <v>1.5544007257337524</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>45.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.4092086355304457</v>
+        <v>0.5366320823417472</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.4719981964153901</v>
+        <v>0.5108464015023623</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.4381159294972517</v>
+        <v>0.4642022356448238</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.32314844147558625</v>
+        <v>0.3954086804972015</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2888888888888888</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3588468075778986</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>45.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6162450049736296</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.625158328795346</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6169457249528665</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.521003227173347</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.311111111111111</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.0622065845600979</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>45.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.41041887814840544</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.45087039226529607</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.4219830227190192</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.31274926615790244</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.2666666666666666</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>0.8633970960424557</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.022222222222222223</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06666666666666667</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2222222222222222</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.17777777777777778</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5003,25 +5009,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.022222222222222223</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="C46" t="n" s="110">
         <v>0.0</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.08888888888888889</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.24444444444444444</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.044444444444444446</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.6</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5029,10 +5035,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8222222222222222</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
@@ -5041,13 +5047,13 @@
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.0</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.13333333333333333</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.044444444444444446</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5055,13 +5061,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8222222222222222</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
@@ -5070,10 +5076,10 @@
         <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.08888888888888889</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.08888888888888889</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5081,25 +5087,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.022222222222222223</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.5111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.26666666666666666</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.08888888888888889</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5107,25 +5113,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.022222222222222223</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.26666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.17777777777777778</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.3111111111111111</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5133,22 +5139,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5555555555555556</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.06666666666666667</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5159,25 +5165,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="C52" t="n" s="110">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G52" t="n" s="114">
         <v>0.08888888888888889</v>
-      </c>
-      <c r="D52" t="n" s="111">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="E52" t="n" s="112">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="F52" t="n" s="113">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G52" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5185,25 +5191,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.06666666666666667</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.06666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.5333333333333333</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.15555555555555556</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F53" t="n" s="113">
         <v>0.17777777777777778</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5211,27 +5217,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.2</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.044444444444444446</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.044444444444444446</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.6</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.2222222222222222</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.08888888888888889</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5262,7 +5346,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5311,31 +5395,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.895838423324375</v>
+        <v>0.874787955894826</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8991468234733897</v>
+        <v>0.9969472105798506</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9304876273205723</v>
+        <v>0.9961910831304038</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6902923076102553</v>
+        <v>0.9908972095443452</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>8.915404099702792</v>
+        <v>326.5692694031382</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.026022956141013066</v>
+        <v>0.0018148231623217666</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.827777777777778</v>
+        <v>0.5777777777777778</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0166542473160964</v>
+        <v>1.260110625254302</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6959540349446041</v>
+        <v>0.9925759923510722</v>
       </c>
     </row>
     <row r="7">
@@ -5382,118 +5466,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8689775031379743</v>
+        <v>0.9922874671340929</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8688145137262361</v>
+        <v>0.9931377438488431</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8369191403346087</v>
+        <v>0.986369026926506</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6882402499900048</v>
+        <v>0.9863690269265062</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>6.622794475245179</v>
+        <v>144.72466809351354</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.033917113637386864</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.011038962373375635</v>
-      </c>
+        <v>0.0021671238610360835</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.7419186577649338</v>
+        <v>0.9863690269265062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8807886537015148</v>
+        <v>0.5891198584697037</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8867475894606649</v>
+        <v>0.9962741658649776</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8736527079068773</v>
+        <v>0.9925759923510723</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.7229874471107256</v>
+        <v>0.9925759923510722</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>7.829834131015499</v>
+        <v>267.39627416586023</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03174438984151879</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.01684256343717854</v>
-      </c>
+        <v>0.006897915451039727</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7419186577649338</v>
+        <v>0.9925759923510722</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8539331727244159</v>
+        <v>0.6117189399465108</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8553739907809299</v>
+        <v>0.9968634977909432</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8088838429731835</v>
+        <v>0.9937466093554571</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6634653105427515</v>
+        <v>0.993746609355457</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.914385630908647</v>
+        <v>317.8264931274193</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.03635252074639301</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.007432874400059403</v>
-      </c>
+        <v>0.006384632062433401</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6499894121242743</v>
+        <v>0.9937466093554569</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8590679393599102</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8678760807935885</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8436630523761305</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6864762227975393</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>6.568652262258003</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.03826542333248419</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.019916093983466707</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6499894121242743</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5502,283 +5556,202 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>45.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9972130375397154</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9984751141728507</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9981002987750013</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.996543104692016</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.38664576746028073</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>45.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8622663543351837</v>
+        <v>0.9964306603277655</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8779523919045559</v>
+        <v>0.996399819123542</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8534377164836398</v>
+        <v>0.9941263377951411</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7710632409716505</v>
+        <v>0.9887896868613468</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.5555555555555554</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0125475422184014</v>
+        <v>1.6535850248304242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>45.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8586561838563235</v>
+        <v>0.9966691085426257</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8482097301826221</v>
+        <v>0.9960084240524142</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7945595064975485</v>
+        <v>0.99295527347696</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7333935011085495</v>
+        <v>0.9884952186277283</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.0</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.243163121016122</v>
+        <v>1.7529196424044293</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>45.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.890048941491799</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8991590705497704</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.886379593019631</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.8022624014128079</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1281521496355325</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>45.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8917943660349179</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8794623515099742</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8464000069901925</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.789715306723846</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.088888888888889</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2581050364847455</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.044444444444444446</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C27" t="n" s="225">
         <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.37777777777777777</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="G27" t="n" s="229">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.022222222222222223</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.022222222222222223</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.6</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5808,8 +5781,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="230">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5823,66 +5796,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="244">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="258">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="258">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="258">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="258">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="258">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="258">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="258">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="258">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="258">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.7178101926886369</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.7386298687499369</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.5855774212902347</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.5855774212902347</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>2.8259918806225817</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.07868738875248957</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>3.2</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.1841759697244019</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.5855774212902347</v>
+      <c r="A6" t="n" s="259">
+        <v>0.5835749616237422</v>
+      </c>
+      <c r="B6" t="n" s="260">
+        <v>0.7068370177155501</v>
+      </c>
+      <c r="C6" t="n" s="261">
+        <v>0.6379388060940079</v>
+      </c>
+      <c r="D6" t="n" s="262">
+        <v>0.44558119422047043</v>
+      </c>
+      <c r="E6" t="n" s="263">
+        <v>2.4110718625099836</v>
+      </c>
+      <c r="F6" t="n" s="264">
+        <v>0.058806314404178044</v>
+      </c>
+      <c r="G6" t="n" s="265">
+        <v>2.4592592592592593</v>
+      </c>
+      <c r="H6" t="n" s="266">
+        <v>0.8111872110419547</v>
+      </c>
+      <c r="I6" t="n" s="267">
+        <v>0.4267825831964608</v>
       </c>
     </row>
     <row r="7">
@@ -5896,86 +5869,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="271">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="285">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="285">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="285">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="285">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="285">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="285">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="285">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="285">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="281">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="286">
+        <v>0.7178101926886369</v>
+      </c>
+      <c r="C11" t="n" s="287">
+        <v>0.7386298687499369</v>
+      </c>
+      <c r="D11" t="n" s="288">
         <v>0.5855774212902347</v>
       </c>
-      <c r="C11" t="n" s="289">
+      <c r="E11" t="n" s="289">
         <v>0.5855774212902347</v>
       </c>
-      <c r="D11" t="n" s="290">
-        <v>0.3429009163249209</v>
-      </c>
-      <c r="E11" t="n" s="291">
+      <c r="F11" t="n" s="290">
+        <v>2.8259918806225817</v>
+      </c>
+      <c r="G11" t="n" s="291">
+        <v>0.07868738875248957</v>
+      </c>
+      <c r="H11" s="292"/>
+      <c r="I11" t="n" s="293">
         <v>0.5855774212902347</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.5855774212902347</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.5855774212902347</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="281">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.3429009163249209</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.5855774212902347</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.3429009163249209</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.5855774212902347</v>
+      <c r="B12" t="n" s="286">
+        <v>0.11821862348178169</v>
+      </c>
+      <c r="C12" t="n" s="287">
+        <v>0.48986348595742335</v>
+      </c>
+      <c r="D12" t="n" s="288">
+        <v>0.32438357817471597</v>
+      </c>
+      <c r="E12" t="n" s="289">
+        <v>0.32438357817471597</v>
+      </c>
+      <c r="F12" t="n" s="290">
+        <v>0.9602596020337775</v>
+      </c>
+      <c r="G12" t="n" s="291">
+        <v>0.04825676830867549</v>
+      </c>
+      <c r="H12" s="292"/>
+      <c r="I12" t="n" s="293">
+        <v>0.3243835781747161</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="281">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="286">
+        <v>0.19971870604782005</v>
+      </c>
+      <c r="C13" t="n" s="287">
+        <v>0.5982447336024075</v>
+      </c>
+      <c r="D13" t="n" s="288">
+        <v>0.42678258319646056</v>
+      </c>
+      <c r="E13" t="n" s="289">
+        <v>0.4267825831964607</v>
+      </c>
+      <c r="F13" t="n" s="290">
+        <v>1.4890775146936377</v>
+      </c>
+      <c r="G13" t="n" s="291">
+        <v>0.05643723394144379</v>
+      </c>
+      <c r="H13" s="292"/>
+      <c r="I13" t="n" s="293">
+        <v>0.4267825831964608</v>
       </c>
     </row>
     <row r="14">
@@ -5984,174 +5987,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="297">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="311">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="311">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="311">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="311">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="311">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="311">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="311">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="307">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="312">
         <v>45.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8529942082354748</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8903868320258994</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.681350987969914</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.5855774212902348</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="313">
+        <v>0.46220730020027434</v>
+      </c>
+      <c r="D18" t="n" s="314">
+        <v>0.7351946164115818</v>
+      </c>
+      <c r="E18" t="n" s="315">
+        <v>0.49501766884444515</v>
+      </c>
+      <c r="F18" t="n" s="316">
+        <v>0.41199060729343195</v>
+      </c>
+      <c r="G18" t="n" s="317">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="H18" t="n" s="318">
+        <v>0.14907119849998599</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="307">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="312">
+        <v>45.0</v>
+      </c>
+      <c r="C19" t="n" s="313">
+        <v>0.8562805438021651</v>
+      </c>
+      <c r="D19" t="n" s="314">
+        <v>0.8448520044620801</v>
+      </c>
+      <c r="E19" t="n" s="315">
+        <v>0.7453239499340897</v>
+      </c>
+      <c r="F19" t="n" s="316">
+        <v>0.6055905457617962</v>
+      </c>
+      <c r="G19" t="n" s="317">
         <v>3.1555555555555554</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="318">
         <v>1.1272564352032197</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="307">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="312">
+        <v>45.0</v>
+      </c>
+      <c r="C20" t="n" s="313">
+        <v>0.9177207624712681</v>
+      </c>
+      <c r="D20" t="n" s="314">
+        <v>0.8018616824249399</v>
+      </c>
+      <c r="E20" t="n" s="315">
+        <v>0.6621140649722639</v>
+      </c>
+      <c r="F20" t="n" s="316">
+        <v>0.5911236443852621</v>
+      </c>
+      <c r="G20" t="n" s="317">
+        <v>3.2444444444444445</v>
+      </c>
+      <c r="H20" t="n" s="318">
+        <v>1.5248778722417495</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="322">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="336">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="336">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="336">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="332">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="337">
+        <v>0.022222222222222223</v>
+      </c>
+      <c r="C25" t="n" s="338">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="D25" t="n" s="339">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="332">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>45.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9225714102311127</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.8903868320258994</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.681350987969914</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.5855774212902348</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>3.2444444444444445</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.5248778722417495</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="337">
         <v>0.022222222222222223</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="338">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D23" t="n" s="341">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="342">
+      <c r="D26" t="n" s="339">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="340">
         <v>0.5111111111111111</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="341">
         <v>0.26666666666666666</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="342">
         <v>0.08888888888888889</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="343">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="332">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="337">
         <v>0.022222222222222223</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="338">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="339">
         <v>0.26666666666666666</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="340">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="341">
         <v>0.17777777777777778</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="342">
         <v>0.3111111111111111</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="343">
         <v>0.0</v>
       </c>
     </row>
@@ -6181,8 +6241,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="345">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6196,66 +6256,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="359">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="373">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="373">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="373">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="373">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="373">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="373">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="373">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="373">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="373">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8135593220338984</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8238688699775005</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.7004906586918925</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.7004906586918924</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>4.677588055400864</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.053351086551219215</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.2888888888888888</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>0.8886205403019135</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.7004906586918924</v>
+      <c r="A6" t="n" s="374">
+        <v>0.7058101472995091</v>
+      </c>
+      <c r="B6" t="n" s="375">
+        <v>0.8780444205644896</v>
+      </c>
+      <c r="C6" t="n" s="376">
+        <v>0.8332038771452073</v>
+      </c>
+      <c r="D6" t="n" s="377">
+        <v>0.7058738996773747</v>
+      </c>
+      <c r="E6" t="n" s="378">
+        <v>7.199706849236828</v>
+      </c>
+      <c r="F6" t="n" s="379">
+        <v>0.0432361855007244</v>
+      </c>
+      <c r="G6" t="n" s="380">
+        <v>2.837037037037037</v>
+      </c>
+      <c r="H6" t="n" s="381">
+        <v>0.7406733976122102</v>
+      </c>
+      <c r="I6" t="n" s="382">
+        <v>0.7017663857663164</v>
       </c>
     </row>
     <row r="7">
@@ -6269,86 +6329,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="386">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="400">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="400">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="400">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="400">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="400">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="400">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="400">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="400">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.7004906586918925</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.7004906586918925</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.49068716291460157</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.7004906586918925</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7004906586918925</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.7004906586918925</v>
+      <c r="A11" t="s" s="396">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="401">
+        <v>0.7779111644657863</v>
+      </c>
+      <c r="C11" t="n" s="402">
+        <v>0.7878710097750836</v>
+      </c>
+      <c r="D11" t="n" s="403">
+        <v>0.6499894121242743</v>
+      </c>
+      <c r="E11" t="n" s="404">
+        <v>0.6499894121242744</v>
+      </c>
+      <c r="F11" t="n" s="405">
+        <v>3.7141128562377035</v>
+      </c>
+      <c r="G11" t="n" s="406">
+        <v>0.06389428262288811</v>
+      </c>
+      <c r="H11" s="407"/>
+      <c r="I11" t="n" s="408">
+        <v>0.6499894121242743</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.49068716291460157</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.7004906586918925</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.49068716291460157</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.7004906586918925</v>
+      <c r="A12" t="s" s="396">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="401">
+        <v>0.37247801345059495</v>
+      </c>
+      <c r="C12" t="n" s="402">
+        <v>0.8247505552300665</v>
+      </c>
+      <c r="D12" t="n" s="403">
+        <v>0.7017663857663167</v>
+      </c>
+      <c r="E12" t="n" s="404">
+        <v>0.7017663857663166</v>
+      </c>
+      <c r="F12" t="n" s="405">
+        <v>4.706152172480743</v>
+      </c>
+      <c r="G12" t="n" s="406">
+        <v>0.04465237499767759</v>
+      </c>
+      <c r="H12" s="407"/>
+      <c r="I12" t="n" s="408">
+        <v>0.7017663857663164</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="396">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="401">
+        <v>0.46444121915820036</v>
+      </c>
+      <c r="C13" t="n" s="402">
+        <v>0.8674111671180056</v>
+      </c>
+      <c r="D13" t="n" s="403">
+        <v>0.7658659011415331</v>
+      </c>
+      <c r="E13" t="n" s="404">
+        <v>0.765865901141533</v>
+      </c>
+      <c r="F13" t="n" s="405">
+        <v>6.542113300673007</v>
+      </c>
+      <c r="G13" t="n" s="406">
+        <v>0.042538927108916415</v>
+      </c>
+      <c r="H13" s="407"/>
+      <c r="I13" t="n" s="408">
+        <v>0.7658659011415331</v>
       </c>
     </row>
     <row r="14">
@@ -6357,165 +6447,219 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="412">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="426">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="426">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="426">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="426">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="426">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="426">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="426">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="422">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="427">
         <v>45.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.937975271488306</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9220874846487974</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7717440707924144</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7004906586918923</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.311111111111111</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.0622065845600979</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="428">
+        <v>0.8354086112032336</v>
+      </c>
+      <c r="D18" t="n" s="429">
+        <v>0.9173897240665376</v>
+      </c>
+      <c r="E18" t="n" s="430">
+        <v>0.865974791599538</v>
+      </c>
+      <c r="F18" t="n" s="431">
+        <v>0.80340991363146</v>
+      </c>
+      <c r="G18" t="n" s="432">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="H18" t="n" s="433">
+        <v>0.2084090771399927</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="422">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="427">
         <v>45.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9044709261287613</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9220874846487974</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.7717440707924144</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.7004906586918925</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>2.2666666666666666</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>0.8633970960424557</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="428">
+        <v>0.8911727357275797</v>
+      </c>
+      <c r="D19" t="n" s="429">
+        <v>0.8981406390977255</v>
+      </c>
+      <c r="E19" t="n" s="430">
+        <v>0.8257107553114643</v>
+      </c>
+      <c r="F19" t="n" s="431">
+        <v>0.6925047970167189</v>
+      </c>
+      <c r="G19" t="n" s="432">
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="H19" t="n" s="433">
+        <v>1.0125475422184014</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="422">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="427">
+        <v>45.0</v>
+      </c>
+      <c r="C20" t="n" s="428">
+        <v>0.9214870297564882</v>
+      </c>
+      <c r="D20" t="n" s="429">
+        <v>0.8743104124327327</v>
+      </c>
+      <c r="E20" t="n" s="430">
+        <v>0.7636011677837182</v>
+      </c>
+      <c r="F20" t="n" s="431">
+        <v>0.6818123607553255</v>
+      </c>
+      <c r="G20" t="n" s="432">
+        <v>4.0</v>
+      </c>
+      <c r="H20" t="n" s="433">
+        <v>1.243163121016122</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="437">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="451">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="451">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="453">
+      <c r="D24" t="s" s="451">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="E24" t="s" s="451">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="451">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E23" t="n" s="457">
+      <c r="G24" t="s" s="451">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="447">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="452">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="C25" t="n" s="453">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="D25" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="447">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="452">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="C26" t="n" s="453">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="454">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="E26" t="n" s="455">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="F26" t="n" s="456">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G26" t="n" s="457">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="447">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="452">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="C27" t="n" s="453">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="454">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="E27" t="n" s="455">
         <v>0.15555555555555556</v>
       </c>
-      <c r="F23" t="n" s="458">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.6</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F27" t="n" s="456">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="G27" t="n" s="457">
         <v>0.0</v>
       </c>
     </row>
@@ -6545,8 +6689,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="459">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6560,66 +6704,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="473">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="487">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="487">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="487">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="487">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="487">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="487">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="487">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="487">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="487">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9922874671340929</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9931377438488431</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.986369026926506</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9863690269265062</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>144.72466809351354</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0021671238610360835</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6974431157812422</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9863690269265062</v>
+      <c r="A6" t="n" s="488">
+        <v>0.4825602301330456</v>
+      </c>
+      <c r="B6" t="n" s="489">
+        <v>0.4858673885925662</v>
+      </c>
+      <c r="C6" t="n" s="490">
+        <v>0.3208882662800169</v>
+      </c>
+      <c r="D6" t="n" s="491">
+        <v>0.320888266280017</v>
+      </c>
+      <c r="E6" t="n" s="492">
+        <v>0.9450234780137912</v>
+      </c>
+      <c r="F6" t="n" s="493">
+        <v>0.15273022589009866</v>
+      </c>
+      <c r="G6" t="n" s="494">
+        <v>1.7666666666666666</v>
+      </c>
+      <c r="H6" t="n" s="495">
+        <v>1.1851352051751118</v>
+      </c>
+      <c r="I6" t="n" s="496">
+        <v>0.320888266280017</v>
       </c>
     </row>
     <row r="7">
@@ -6633,81 +6777,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="500">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="514">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="514">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="514">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="514">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="514">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="514">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="514">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="514">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9863690269265062</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9863690269265062</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9729238572799422</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9863690269265062</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9863690269265062</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9863690269265062</v>
+      <c r="A11" t="s" s="510">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="515">
+        <v>0.320888266280017</v>
+      </c>
+      <c r="C11" t="n" s="516">
+        <v>0.320888266280017</v>
+      </c>
+      <c r="D11" t="n" s="517">
+        <v>0.10296927943619494</v>
+      </c>
+      <c r="E11" t="n" s="518">
+        <v>0.320888266280017</v>
+      </c>
+      <c r="F11" s="519"/>
+      <c r="G11" s="520"/>
+      <c r="H11" t="n" s="521">
+        <v>0.320888266280017</v>
+      </c>
+      <c r="I11" t="n" s="522">
+        <v>0.320888266280017</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9729238572799422</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9863690269265062</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9729238572799422</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9863690269265062</v>
+      <c r="A12" t="s" s="510">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="515">
+        <v>0.10296927943619494</v>
+      </c>
+      <c r="C12" t="n" s="516">
+        <v>0.320888266280017</v>
+      </c>
+      <c r="D12" s="517"/>
+      <c r="E12" s="518"/>
+      <c r="F12" s="519"/>
+      <c r="G12" s="520"/>
+      <c r="H12" t="n" s="521">
+        <v>0.10296927943619494</v>
+      </c>
+      <c r="I12" t="n" s="522">
+        <v>0.320888266280017</v>
       </c>
     </row>
     <row r="13">
@@ -6721,84 +6865,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="526">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="540">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="540">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="540">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="540">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="540">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="540">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="540">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="536">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="541">
         <v>45.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9963841012817699</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9965864305032721</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9897709038475642</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.986369026926506</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.6535850248304242</v>
+      <c r="C17" t="n" s="542">
+        <v>0.8397517486890701</v>
+      </c>
+      <c r="D17" t="n" s="543">
+        <v>0.8126771395455938</v>
+      </c>
+      <c r="E17" t="n" s="544">
+        <v>0.4603572230975701</v>
+      </c>
+      <c r="F17" t="n" s="545">
+        <v>0.3208882662800168</v>
+      </c>
+      <c r="G17" t="n" s="546">
+        <v>1.2444444444444445</v>
+      </c>
+      <c r="H17" t="n" s="547">
+        <v>1.5544007257337524</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="536">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="541">
         <v>45.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9967829445433875</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9965864305032721</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9897709038475642</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.986369026926506</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.8</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7529196424044293</v>
+      <c r="C18" t="n" s="542">
+        <v>0.7837231370105675</v>
+      </c>
+      <c r="D18" t="n" s="543">
+        <v>0.8126771395455938</v>
+      </c>
+      <c r="E18" t="n" s="544">
+        <v>0.4603572230975701</v>
+      </c>
+      <c r="F18" t="n" s="545">
+        <v>0.32088826628001704</v>
+      </c>
+      <c r="G18" t="n" s="546">
+        <v>2.2888888888888888</v>
+      </c>
+      <c r="H18" t="n" s="547">
+        <v>1.3588468075778986</v>
       </c>
     </row>
     <row r="19">
@@ -6812,56 +6956,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="551">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="565">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s" s="565">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="565">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s" s="565">
         <v>41</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="F22" t="s" s="565">
         <v>42</v>
       </c>
-      <c r="E22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="565">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8222222222222222</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="561">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="566">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C23" t="n" s="567">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D23" t="n" s="568">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E23" t="n" s="569">
+        <v>0.2</v>
+      </c>
+      <c r="F23" t="n" s="570">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G23" t="n" s="571">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="561">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="566">
+        <v>0.2</v>
+      </c>
+      <c r="C24" t="n" s="567">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="D24" t="n" s="568">
         <v>0.044444444444444446</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8222222222222222</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="E24" t="n" s="571">
+      <c r="E24" t="n" s="569">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F24" t="n" s="570">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G24" t="n" s="571">
         <v>0.0</v>
       </c>
     </row>
@@ -6892,7 +7054,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="573">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6941,31 +7103,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="602">
-        <v>0.4825602301330456</v>
+        <v>0.8135593220338984</v>
       </c>
       <c r="B6" t="n" s="603">
-        <v>0.4858673885925662</v>
+        <v>0.8238688699775005</v>
       </c>
       <c r="C6" t="n" s="604">
-        <v>0.3208882662800169</v>
+        <v>0.7004906586918925</v>
       </c>
       <c r="D6" t="n" s="605">
-        <v>0.320888266280017</v>
+        <v>0.7004906586918924</v>
       </c>
       <c r="E6" t="n" s="606">
-        <v>0.9450234780137912</v>
+        <v>4.677588055400864</v>
       </c>
       <c r="F6" t="n" s="607">
-        <v>0.15273022589009866</v>
+        <v>0.053351086551219215</v>
       </c>
       <c r="G6" t="n" s="608">
-        <v>1.7666666666666666</v>
+        <v>2.2888888888888888</v>
       </c>
       <c r="H6" t="n" s="609">
-        <v>1.1851352051751118</v>
+        <v>0.8886205403019135</v>
       </c>
       <c r="I6" t="n" s="610">
-        <v>0.320888266280017</v>
+        <v>0.7004906586918924</v>
       </c>
     </row>
     <row r="7">
@@ -7012,48 +7174,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="624">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="629">
-        <v>0.320888266280017</v>
+        <v>0.7004906586918925</v>
       </c>
       <c r="C11" t="n" s="630">
-        <v>0.320888266280017</v>
+        <v>0.7004906586918925</v>
       </c>
       <c r="D11" t="n" s="631">
-        <v>0.10296927943619494</v>
+        <v>0.49068716291460157</v>
       </c>
       <c r="E11" t="n" s="632">
-        <v>0.320888266280017</v>
+        <v>0.7004906586918925</v>
       </c>
       <c r="F11" s="633"/>
       <c r="G11" s="634"/>
       <c r="H11" t="n" s="635">
-        <v>0.320888266280017</v>
+        <v>0.7004906586918925</v>
       </c>
       <c r="I11" t="n" s="636">
-        <v>0.320888266280017</v>
+        <v>0.7004906586918925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="624">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="629">
-        <v>0.10296927943619494</v>
+        <v>0.49068716291460157</v>
       </c>
       <c r="C12" t="n" s="630">
-        <v>0.320888266280017</v>
+        <v>0.7004906586918925</v>
       </c>
       <c r="D12" s="631"/>
       <c r="E12" s="632"/>
       <c r="F12" s="633"/>
       <c r="G12" s="634"/>
       <c r="H12" t="n" s="635">
-        <v>0.10296927943619494</v>
+        <v>0.49068716291460157</v>
       </c>
       <c r="I12" t="n" s="636">
-        <v>0.320888266280017</v>
+        <v>0.7004906586918925</v>
       </c>
     </row>
     <row r="13">
@@ -7068,25 +7230,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="640">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="654">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="654">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="654">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="654">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="654">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="654">
         <v>9</v>
@@ -7097,54 +7259,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="650">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="655">
         <v>45.0</v>
       </c>
       <c r="C17" t="n" s="656">
-        <v>0.8397517486890701</v>
+        <v>0.937975271488306</v>
       </c>
       <c r="D17" t="n" s="657">
-        <v>0.8126771395455938</v>
+        <v>0.9220874846487974</v>
       </c>
       <c r="E17" t="n" s="658">
-        <v>0.4603572230975701</v>
+        <v>0.7717440707924144</v>
       </c>
       <c r="F17" t="n" s="659">
-        <v>0.3208882662800168</v>
+        <v>0.7004906586918923</v>
       </c>
       <c r="G17" t="n" s="660">
-        <v>1.2444444444444445</v>
+        <v>2.311111111111111</v>
       </c>
       <c r="H17" t="n" s="661">
-        <v>1.5544007257337524</v>
+        <v>1.0622065845600979</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="650">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="655">
         <v>45.0</v>
       </c>
       <c r="C18" t="n" s="656">
-        <v>0.7837231370105675</v>
+        <v>0.9044709261287613</v>
       </c>
       <c r="D18" t="n" s="657">
-        <v>0.8126771395455938</v>
+        <v>0.9220874846487974</v>
       </c>
       <c r="E18" t="n" s="658">
-        <v>0.4603572230975701</v>
+        <v>0.7717440707924144</v>
       </c>
       <c r="F18" t="n" s="659">
-        <v>0.32088826628001704</v>
+        <v>0.7004906586918925</v>
       </c>
       <c r="G18" t="n" s="660">
-        <v>2.2888888888888888</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="H18" t="n" s="661">
-        <v>1.3588468075778986</v>
+        <v>0.8633970960424557</v>
       </c>
     </row>
     <row r="19">
@@ -7159,48 +7321,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="665">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="679">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="679">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="679">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="679">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="679">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="679">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="675">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="680">
-        <v>0.5555555555555556</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C23" t="n" s="681">
         <v>0.06666666666666667</v>
       </c>
       <c r="D23" t="n" s="682">
-        <v>0.06666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E23" t="n" s="683">
-        <v>0.2</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="F23" t="n" s="684">
-        <v>0.1111111111111111</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="G23" t="n" s="685">
         <v>0.0</v>
@@ -7208,22 +7370,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="675">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="680">
-        <v>0.2</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="C24" t="n" s="681">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="D24" t="n" s="682">
+        <v>0.6</v>
+      </c>
+      <c r="E24" t="n" s="683">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="F24" t="n" s="684">
         <v>0.08888888888888889</v>
-      </c>
-      <c r="D24" t="n" s="682">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="E24" t="n" s="683">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="F24" t="n" s="684">
-        <v>0.1111111111111111</v>
       </c>
       <c r="G24" t="n" s="685">
         <v>0.0</v>
@@ -7256,7 +7418,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="687">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7305,31 +7467,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="716">
-        <v>0.790055413660737</v>
+        <v>0.7450731950132362</v>
       </c>
       <c r="B6" t="n" s="717">
-        <v>0.8141909499959133</v>
+        <v>0.8023213879541133</v>
       </c>
       <c r="C6" t="n" s="718">
-        <v>0.9292700994913804</v>
+        <v>0.9178854590173333</v>
       </c>
       <c r="D6" t="n" s="719">
-        <v>0.3046800889871488</v>
+        <v>0.2886974992961974</v>
       </c>
       <c r="E6" t="n" s="720">
-        <v>4.381869182249228</v>
+        <v>4.058716214417129</v>
       </c>
       <c r="F6" t="n" s="721">
-        <v>0.04907722874415833</v>
+        <v>0.05637234513046364</v>
       </c>
       <c r="G6" t="n" s="722">
-        <v>2.497777777777778</v>
+        <v>1.8355555555555556</v>
       </c>
       <c r="H6" t="n" s="723">
-        <v>0.7753265848217209</v>
+        <v>0.6681574241407061</v>
       </c>
       <c r="I6" t="n" s="724">
-        <v>0.24967876695593924</v>
+        <v>0.21499640510241666</v>
       </c>
     </row>
     <row r="7">
@@ -7376,292 +7538,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="738">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="743">
-        <v>0.7560724129544809</v>
+        <v>0.7291915875302102</v>
       </c>
       <c r="C11" t="n" s="744">
-        <v>0.7780564192368632</v>
+        <v>0.7840296493131811</v>
       </c>
       <c r="D11" t="n" s="745">
-        <v>0.8964758464170324</v>
+        <v>0.8991732804253695</v>
       </c>
       <c r="E11" t="n" s="746">
-        <v>0.280325268421688</v>
+        <v>0.2874258889863535</v>
       </c>
       <c r="F11" t="n" s="747">
-        <v>3.5056495734707576</v>
+        <v>3.6302652045516726</v>
       </c>
       <c r="G11" t="n" s="748">
-        <v>0.057306729463249474</v>
+        <v>0.061542621617952764</v>
       </c>
       <c r="H11" t="n" s="749">
-        <v>0.057902178886987794</v>
+        <v>0.05866155474478415</v>
       </c>
       <c r="I11" t="n" s="750">
-        <v>0.2139773145726147</v>
+        <v>0.2486904568824213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="738">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="743">
-        <v>0.7521735911321712</v>
+        <v>0.7084621872364352</v>
       </c>
       <c r="C12" t="n" s="744">
-        <v>0.7792254513712515</v>
+        <v>0.7816811124995354</v>
       </c>
       <c r="D12" t="n" s="745">
-        <v>0.9028640381252853</v>
+        <v>0.897698404062477</v>
       </c>
       <c r="E12" t="n" s="746">
-        <v>0.28169563609491227</v>
+        <v>0.2846046128537269</v>
       </c>
       <c r="F12" t="n" s="747">
-        <v>3.529507618568783</v>
+        <v>3.5804557335785807</v>
       </c>
       <c r="G12" t="n" s="748">
-        <v>0.05820460204324257</v>
+        <v>0.06344734085310433</v>
       </c>
       <c r="H12" t="n" s="749">
-        <v>0.05993052016825878</v>
+        <v>0.06019229131982381</v>
       </c>
       <c r="I12" t="n" s="750">
-        <v>0.22198127520820882</v>
+        <v>0.2486904568824213</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="738">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="743">
-        <v>0.7607726219982934</v>
+        <v>0.7220222360441609</v>
       </c>
       <c r="C13" t="n" s="744">
-        <v>0.7858694580625671</v>
+        <v>0.7855335278428139</v>
       </c>
       <c r="D13" t="n" s="745">
-        <v>0.8923499556714931</v>
+        <v>0.8991308710000447</v>
       </c>
       <c r="E13" t="n" s="746">
-        <v>0.2896633305175571</v>
+        <v>0.2892529867717988</v>
       </c>
       <c r="F13" t="n" s="747">
-        <v>3.6700484244428404</v>
+        <v>3.662733479697858</v>
       </c>
       <c r="G13" t="n" s="748">
-        <v>0.05624876356285018</v>
+        <v>0.05986277599807001</v>
       </c>
       <c r="H13" t="n" s="749">
-        <v>0.05443083014247989</v>
+        <v>0.05848941576502332</v>
       </c>
       <c r="I13" t="n" s="750">
-        <v>0.2518850547245588</v>
+        <v>0.2592756691060396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="738">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="743">
-        <v>0.7578539361035707</v>
+        <v>0.7443360604153555</v>
       </c>
       <c r="C14" t="n" s="744">
-        <v>0.7844773515502276</v>
+        <v>0.7845453097624203</v>
       </c>
       <c r="D14" t="n" s="745">
-        <v>0.8979031279083862</v>
+        <v>0.8983831449199815</v>
       </c>
       <c r="E14" t="n" s="746">
-        <v>0.287968126026843</v>
+        <v>0.28805055865691714</v>
       </c>
       <c r="F14" t="n" s="747">
-        <v>3.6398835908563445</v>
+        <v>3.641347092037355</v>
       </c>
       <c r="G14" t="n" s="748">
-        <v>0.0569060466468659</v>
+        <v>0.05846483081063236</v>
       </c>
       <c r="H14" t="n" s="749">
-        <v>0.0574074197559093</v>
+        <v>0.08032151492810165</v>
       </c>
       <c r="I14" t="n" s="750">
-        <v>0.23612785829283264</v>
+        <v>0.22914298818704049</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="738">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="743">
-        <v>0.7680062166962699</v>
+        <v>0.7118411420204978</v>
       </c>
       <c r="C15" t="n" s="744">
-        <v>0.7904200166931039</v>
+        <v>0.7702151397449857</v>
       </c>
       <c r="D15" t="n" s="745">
-        <v>0.9097364677917306</v>
+        <v>0.8967390639753716</v>
       </c>
       <c r="E15" t="n" s="746">
-        <v>0.2953030875012347</v>
+        <v>0.2713669698276322</v>
       </c>
       <c r="F15" t="n" s="747">
-        <v>3.7714480372663317</v>
+        <v>3.351896808563469</v>
       </c>
       <c r="G15" t="n" s="748">
-        <v>0.05400684314856057</v>
+        <v>0.06375702143410708</v>
       </c>
       <c r="H15" t="n" s="749">
-        <v>0.06112704206664292</v>
+        <v>0.08469397286664086</v>
       </c>
       <c r="I15" t="n" s="750">
-        <v>0.22198127520820882</v>
+        <v>0.1476946261584523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="738">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="743">
-        <v>0.7805814948472786</v>
+        <v>0.7106418011702519</v>
       </c>
       <c r="C16" t="n" s="744">
-        <v>0.8049928573979663</v>
+        <v>0.773462224063483</v>
       </c>
       <c r="D16" t="n" s="745">
-        <v>0.9183874247103532</v>
+        <v>0.9073382382907343</v>
       </c>
       <c r="E16" t="n" s="746">
-        <v>0.31444331634773426</v>
+        <v>0.2750281324684576</v>
       </c>
       <c r="F16" t="n" s="747">
-        <v>4.128017295452496</v>
+        <v>3.4142748195790142</v>
       </c>
       <c r="G16" t="n" s="748">
-        <v>0.05201907590655241</v>
+        <v>0.06357271664645077</v>
       </c>
       <c r="H16" t="n" s="749">
-        <v>0.06285128557542907</v>
+        <v>0.0850333707887938</v>
       </c>
       <c r="I16" t="n" s="750">
-        <v>0.2556202154686279</v>
+        <v>0.1858482107334062</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="738">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="743">
-        <v>0.7799873002434119</v>
+        <v>0.742945855428412</v>
       </c>
       <c r="C17" t="n" s="744">
-        <v>0.8124183902022498</v>
+        <v>0.8031765654451907</v>
       </c>
       <c r="D17" t="n" s="745">
-        <v>0.8881759082300162</v>
+        <v>0.9236199579531011</v>
       </c>
       <c r="E17" t="n" s="746">
-        <v>0.3248825125732402</v>
+        <v>0.3119632068420747</v>
       </c>
       <c r="F17" t="n" s="747">
-        <v>4.331012997906333</v>
+        <v>4.080695813798183</v>
       </c>
       <c r="G17" t="n" s="748">
-        <v>0.05049225592972111</v>
+        <v>0.05690425073034235</v>
       </c>
       <c r="H17" t="n" s="749">
-        <v>0.05111876914089659</v>
+        <v>0.08951130676050528</v>
       </c>
       <c r="I17" t="n" s="750">
-        <v>0.268292669940042</v>
+        <v>0.2486904568824213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="738">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="743">
-        <v>0.7906395019213405</v>
+        <v>0.7297926496150982</v>
       </c>
       <c r="C18" t="n" s="744">
-        <v>0.8166895780484277</v>
+        <v>0.7927527066451598</v>
       </c>
       <c r="D18" t="n" s="745">
-        <v>0.8907028689496224</v>
+        <v>0.914670384113577</v>
       </c>
       <c r="E18" t="n" s="746">
-        <v>0.331114973700398</v>
+        <v>0.29825401233536153</v>
       </c>
       <c r="F18" t="n" s="747">
-        <v>4.455227200689027</v>
+        <v>3.825153486023298</v>
       </c>
       <c r="G18" t="n" s="748">
-        <v>0.04785559267436848</v>
+        <v>0.058396712078394725</v>
       </c>
       <c r="H18" t="n" s="749">
-        <v>0.048437262193534704</v>
+        <v>0.08365361527205314</v>
       </c>
       <c r="I18" t="n" s="750">
-        <v>0.27081057311758416</v>
+        <v>0.20433193916606399</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="738">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="743">
-        <v>0.7877483141971934</v>
+        <v>0.71210890575516</v>
       </c>
       <c r="C19" t="n" s="744">
-        <v>0.810791123794218</v>
+        <v>0.7801261843287703</v>
       </c>
       <c r="D19" t="n" s="745">
-        <v>0.9367778765855134</v>
+        <v>0.8964913666381952</v>
       </c>
       <c r="E19" t="n" s="746">
-        <v>0.3225526016263836</v>
+        <v>0.2827578337639258</v>
       </c>
       <c r="F19" t="n" s="747">
-        <v>4.28516431180749</v>
+        <v>3.548063155893328</v>
       </c>
       <c r="G19" t="n" s="748">
-        <v>0.05054794834063428</v>
+        <v>0.06227483539224675</v>
       </c>
       <c r="H19" t="n" s="749">
-        <v>0.06874277252904334</v>
+        <v>0.08149239561578679</v>
       </c>
       <c r="I19" t="n" s="750">
-        <v>0.2518850547245588</v>
+        <v>0.1858482107334062</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="738">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="743">
-        <v>0.7852472144162557</v>
+        <v>0.7277349139032241</v>
       </c>
       <c r="C20" t="n" s="744">
-        <v>0.8081714439546082</v>
+        <v>0.7927658766658756</v>
       </c>
       <c r="D20" t="n" s="745">
-        <v>0.930987706633261</v>
+        <v>0.9114812817902322</v>
       </c>
       <c r="E20" t="n" s="746">
-        <v>0.31885203706149734</v>
+        <v>0.298270790455726</v>
       </c>
       <c r="F20" t="n" s="747">
-        <v>4.212988204755982</v>
+        <v>3.8254601313302836</v>
       </c>
       <c r="G20" t="n" s="748">
-        <v>0.050317481426752964</v>
+        <v>0.06014470084035271</v>
       </c>
       <c r="H20" t="n" s="749">
-        <v>0.061553686167329126</v>
+        <v>0.0846394911536671</v>
       </c>
       <c r="I20" t="n" s="750">
-        <v>0.2518850547245588</v>
+        <v>0.22914298818704049</v>
       </c>
     </row>
     <row r="21">
@@ -7676,25 +7838,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="754">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="768">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="768">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="768">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="768">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="768">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="768">
         <v>9</v>
@@ -7705,262 +7867,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="764">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C25" t="n" s="770">
-        <v>0.7195661066282684</v>
+        <v>0.6611748939339137</v>
       </c>
       <c r="D25" t="n" s="771">
-        <v>0.7550559360399579</v>
+        <v>0.6074879284427581</v>
       </c>
       <c r="E25" t="n" s="772">
-        <v>0.7568782723540146</v>
+        <v>0.6329733890354708</v>
       </c>
       <c r="F25" t="n" s="773">
-        <v>0.6468252385815596</v>
+        <v>0.6266704127019114</v>
       </c>
       <c r="G25" t="n" s="774">
-        <v>3.5555555555555554</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="H25" t="n" s="775">
-        <v>1.0125475422184014</v>
+        <v>0.38664576746028073</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="764">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C26" t="n" s="770">
-        <v>0.7215325972420888</v>
+        <v>0.6806962286069219</v>
       </c>
       <c r="D26" t="n" s="771">
-        <v>0.7469913755386449</v>
+        <v>0.6244196364140366</v>
       </c>
       <c r="E26" t="n" s="772">
-        <v>0.736135241406727</v>
+        <v>0.6498626494843681</v>
       </c>
       <c r="F26" t="n" s="773">
-        <v>0.6296682152232881</v>
+        <v>0.5090185034495349</v>
       </c>
       <c r="G26" t="n" s="774">
-        <v>4.0</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H26" t="n" s="775">
-        <v>1.243163121016122</v>
+        <v>1.6535850248304242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="764">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C27" t="n" s="770">
-        <v>0.6669057212432802</v>
+        <v>0.6504449220306211</v>
       </c>
       <c r="D27" t="n" s="771">
-        <v>0.7001018035041501</v>
+        <v>0.5965227181322995</v>
       </c>
       <c r="E27" t="n" s="772">
-        <v>0.7046994163554606</v>
+        <v>0.6203689045714327</v>
       </c>
       <c r="F27" t="n" s="773">
-        <v>0.5733144051701938</v>
+        <v>0.45499712445253765</v>
       </c>
       <c r="G27" t="n" s="774">
-        <v>3.6666666666666665</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n" s="775">
-        <v>1.1281521496355325</v>
+        <v>1.7529196424044293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="764">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C28" t="n" s="770">
-        <v>0.6828811134102134</v>
+        <v>0.4849207722693725</v>
       </c>
       <c r="D28" t="n" s="771">
-        <v>0.7100780160524917</v>
+        <v>0.6037390134329215</v>
       </c>
       <c r="E28" t="n" s="772">
-        <v>0.7062368003589451</v>
+        <v>0.581360745253541</v>
       </c>
       <c r="F28" t="n" s="773">
-        <v>0.5803569137321456</v>
+        <v>0.46052080543468116</v>
       </c>
       <c r="G28" t="n" s="774">
-        <v>4.088888888888889</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="H28" t="n" s="775">
-        <v>1.2581050364847455</v>
+        <v>0.2084090771399927</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="764">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C29" t="n" s="770">
-        <v>0.6107407207904836</v>
+        <v>0.621849928808019</v>
       </c>
       <c r="D29" t="n" s="771">
-        <v>0.6669120528290218</v>
+        <v>0.7038645029954563</v>
       </c>
       <c r="E29" t="n" s="772">
-        <v>0.6381413689215499</v>
+        <v>0.6846064758020932</v>
       </c>
       <c r="F29" t="n" s="773">
-        <v>0.5134125183753293</v>
+        <v>0.514837651930889</v>
       </c>
       <c r="G29" t="n" s="774">
-        <v>2.311111111111111</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="H29" t="n" s="775">
-        <v>1.0622065845600979</v>
+        <v>1.0125475422184014</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="764">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C30" t="n" s="770">
-        <v>0.4897991890401736</v>
+        <v>0.6293152312329192</v>
       </c>
       <c r="D30" t="n" s="771">
-        <v>0.5542725499003011</v>
+        <v>0.6818922699506547</v>
       </c>
       <c r="E30" t="n" s="772">
-        <v>0.5091138594648301</v>
+        <v>0.6406055083746746</v>
       </c>
       <c r="F30" t="n" s="773">
-        <v>0.39817849409446343</v>
+        <v>0.4954402845693851</v>
       </c>
       <c r="G30" t="n" s="774">
-        <v>2.2666666666666666</v>
+        <v>4.0</v>
       </c>
       <c r="H30" t="n" s="775">
-        <v>0.8633970960424557</v>
+        <v>1.243163121016122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="764">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C31" t="n" s="770">
-        <v>0.5898769586380823</v>
+        <v>0.5231966186259831</v>
       </c>
       <c r="D31" t="n" s="771">
-        <v>0.4928382858041635</v>
+        <v>0.46022878725946903</v>
       </c>
       <c r="E31" t="n" s="772">
-        <v>0.5074493176932217</v>
+        <v>0.3653826533557559</v>
       </c>
       <c r="F31" t="n" s="773">
-        <v>0.4226742999785424</v>
+        <v>0.322703683150765</v>
       </c>
       <c r="G31" t="n" s="774">
-        <v>0.7555555555555555</v>
+        <v>1.2444444444444445</v>
       </c>
       <c r="H31" t="n" s="775">
-        <v>1.6535850248304242</v>
+        <v>1.5544007257337524</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="764">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C32" t="n" s="770">
-        <v>0.5548518291531932</v>
+        <v>0.5441431563461978</v>
       </c>
       <c r="D32" t="n" s="771">
-        <v>0.4561604942784886</v>
+        <v>0.5425036398429406</v>
       </c>
       <c r="E32" t="n" s="772">
-        <v>0.46930045650620833</v>
+        <v>0.4807763498546829</v>
       </c>
       <c r="F32" t="n" s="773">
-        <v>0.36751752371624624</v>
+        <v>0.3763109290827441</v>
       </c>
       <c r="G32" t="n" s="774">
-        <v>0.8</v>
+        <v>2.2888888888888888</v>
       </c>
       <c r="H32" t="n" s="775">
-        <v>1.7529196424044293</v>
+        <v>1.3588468075778986</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="764">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C33" t="n" s="770">
-        <v>0.5247182378015763</v>
+        <v>0.618111533289626</v>
       </c>
       <c r="D33" t="n" s="771">
-        <v>0.5065497211807638</v>
+        <v>0.6355029628117487</v>
       </c>
       <c r="E33" t="n" s="772">
-        <v>0.4104748450182566</v>
+        <v>0.6061415050713964</v>
       </c>
       <c r="F33" t="n" s="773">
-        <v>0.35593711722405247</v>
+        <v>0.5043490112318902</v>
       </c>
       <c r="G33" t="n" s="774">
-        <v>1.2444444444444445</v>
+        <v>2.311111111111111</v>
       </c>
       <c r="H33" t="n" s="775">
-        <v>1.5544007257337524</v>
+        <v>1.0622065845600979</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="764">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="769">
         <v>45.0</v>
       </c>
       <c r="C34" t="n" s="770">
-        <v>0.5010955963758925</v>
+        <v>0.5071646280231086</v>
       </c>
       <c r="D34" t="n" s="771">
-        <v>0.5283273998327436</v>
+        <v>0.5424029470284257</v>
       </c>
       <c r="E34" t="n" s="772">
-        <v>0.4585535225804399</v>
+        <v>0.4849267686856235</v>
       </c>
       <c r="F34" t="n" s="773">
-        <v>0.35236742639525964</v>
+        <v>0.4016080096575232</v>
       </c>
       <c r="G34" t="n" s="774">
-        <v>2.2888888888888888</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="H34" t="n" s="775">
-        <v>1.3588468075778986</v>
+        <v>0.8633970960424557</v>
       </c>
     </row>
     <row r="35">
@@ -7975,54 +8137,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="779">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="793">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="793">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="793">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="793">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="793">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="793">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="793">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="789">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="794">
-        <v>0.044444444444444446</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C39" t="n" s="795">
-        <v>0.0</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="D39" t="n" s="796">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="797">
-        <v>0.37777777777777777</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="798">
-        <v>0.4666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="799">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="800">
         <v>0.0</v>
@@ -8030,25 +8192,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="789">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="794">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="C40" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n" s="798">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G40" t="n" s="799">
         <v>0.044444444444444446</v>
-      </c>
-      <c r="C40" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n" s="797">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="F40" t="n" s="798">
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="G40" t="n" s="799">
-        <v>0.4888888888888889</v>
       </c>
       <c r="H40" t="n" s="800">
         <v>0.0</v>
@@ -8056,25 +8218,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="789">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="794">
-        <v>0.022222222222222223</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C41" t="n" s="795">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="796">
         <v>0.0</v>
       </c>
       <c r="E41" t="n" s="797">
-        <v>0.2222222222222222</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n" s="798">
-        <v>0.5111111111111111</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="G41" t="n" s="799">
-        <v>0.17777777777777778</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="H41" t="n" s="800">
         <v>0.0</v>
@@ -8082,25 +8244,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="789">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="794">
-        <v>0.022222222222222223</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="C42" t="n" s="795">
-        <v>0.0</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="D42" t="n" s="796">
-        <v>0.08888888888888889</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="797">
-        <v>0.24444444444444444</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="798">
-        <v>0.044444444444444446</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="799">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="800">
         <v>0.0</v>
@@ -8108,25 +8270,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="789">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="794">
-        <v>0.06666666666666667</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="C43" t="n" s="795">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n" s="796">
-        <v>0.5333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="797">
-        <v>0.15555555555555556</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="F43" t="n" s="798">
-        <v>0.17777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G43" t="n" s="799">
-        <v>0.0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H43" t="n" s="800">
         <v>0.0</v>
@@ -8134,25 +8296,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="789">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="794">
         <v>0.044444444444444446</v>
       </c>
       <c r="C44" t="n" s="795">
-        <v>0.044444444444444446</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="796">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n" s="797">
-        <v>0.2222222222222222</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="F44" t="n" s="798">
-        <v>0.08888888888888889</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="G44" t="n" s="799">
-        <v>0.0</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H44" t="n" s="800">
         <v>0.0</v>
@@ -8160,25 +8322,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="789">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="794">
-        <v>0.8222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C45" t="n" s="795">
-        <v>0.0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D45" t="n" s="796">
-        <v>0.0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E45" t="n" s="797">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F45" t="n" s="798">
-        <v>0.13333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G45" t="n" s="799">
-        <v>0.044444444444444446</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="800">
         <v>0.0</v>
@@ -8186,25 +8348,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="789">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="794">
-        <v>0.8222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="C46" t="n" s="795">
-        <v>0.0</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="D46" t="n" s="796">
-        <v>0.0</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="E46" t="n" s="797">
-        <v>0.0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F46" t="n" s="798">
-        <v>0.08888888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G46" t="n" s="799">
-        <v>0.08888888888888889</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="800">
         <v>0.0</v>
@@ -8212,22 +8374,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="789">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="794">
-        <v>0.5555555555555556</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C47" t="n" s="795">
         <v>0.06666666666666667</v>
       </c>
       <c r="D47" t="n" s="796">
-        <v>0.06666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E47" t="n" s="797">
-        <v>0.2</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="F47" t="n" s="798">
-        <v>0.1111111111111111</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="G47" t="n" s="799">
         <v>0.0</v>
@@ -8238,22 +8400,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="789">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="794">
-        <v>0.2</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="C48" t="n" s="795">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="D48" t="n" s="796">
+        <v>0.6</v>
+      </c>
+      <c r="E48" t="n" s="797">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="F48" t="n" s="798">
         <v>0.08888888888888889</v>
-      </c>
-      <c r="D48" t="n" s="796">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="E48" t="n" s="797">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="F48" t="n" s="798">
-        <v>0.1111111111111111</v>
       </c>
       <c r="G48" t="n" s="799">
         <v>0.0</v>
